--- a/predictions/multiple/GradientBoostingRegressor/Incidencia.xlsx
+++ b/predictions/multiple/GradientBoostingRegressor/Incidencia.xlsx
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.410032845777093</v>
+        <v>0.4226510364807384</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9332014170039187</v>
+        <v>0.9311457834914852</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.878893579773739</v>
+        <v>2.878893579773744</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9588727023492973</v>
+        <v>0.9588727023492972</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -498,10 +498,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.092122494967854</v>
+        <v>1.091022577983251</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9460535741078879</v>
+        <v>0.9461079055499841</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.562193423765017</v>
+        <v>1.56219342376502</v>
       </c>
       <c r="C5" t="n">
         <v>0.9989738867125377</v>
@@ -534,7 +534,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.191061667365153</v>
+        <v>1.19106166736515</v>
       </c>
       <c r="C6" t="n">
         <v>0.9870213363411285</v>
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.271977756333027</v>
+        <v>1.271977756333023</v>
       </c>
       <c r="C7" t="n">
         <v>0.9992868418203459</v>
@@ -570,7 +570,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.439159786975205</v>
+        <v>1.439159786975196</v>
       </c>
       <c r="C8" t="n">
         <v>0.9983515097052726</v>
@@ -588,10 +588,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.904407981333385</v>
+        <v>4.887168358957356</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9413711915756492</v>
+        <v>0.9415772793484118</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -606,10 +606,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8430498152485713</v>
+        <v>0.8502471867908136</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9974868946128548</v>
+        <v>0.9974654394712144</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>

--- a/predictions/multiple/GradientBoostingRegressor/Incidencia.xlsx
+++ b/predictions/multiple/GradientBoostingRegressor/Incidencia.xlsx
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4226510364807384</v>
+        <v>0.4251862888688249</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9311457834914852</v>
+        <v>0.9307327647082201</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -498,10 +498,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.091022577983251</v>
+        <v>1.090838003737177</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9461079055499841</v>
+        <v>0.9461170227698321</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -534,7 +534,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.19106166736515</v>
+        <v>1.191061667365153</v>
       </c>
       <c r="C6" t="n">
         <v>0.9870213363411285</v>
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.271977756333023</v>
+        <v>1.271977756333025</v>
       </c>
       <c r="C7" t="n">
         <v>0.9992868418203459</v>
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.439159786975196</v>
+        <v>1.73103996916734</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9983515097052726</v>
+        <v>0.9980171745939656</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -588,10 +588,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.887168358957356</v>
+        <v>4.919241847624935</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9415772793484118</v>
+        <v>0.9411938629544762</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -606,10 +606,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8502471867908136</v>
+        <v>0.8471066322618543</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9974654394712144</v>
+        <v>0.9974748013669915</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>

--- a/predictions/multiple/GradientBoostingRegressor/Incidencia.xlsx
+++ b/predictions/multiple/GradientBoostingRegressor/Incidencia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,6 +451,11 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>MAE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Tipo</t>
         </is>
       </c>
@@ -462,12 +467,15 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4251862888688249</v>
+        <v>0.4101026717820584</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9307327647082201</v>
-      </c>
-      <c r="D2" t="inlineStr">
+        <v>0.9331900416269556</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5013618022923331</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>multiple</t>
         </is>
@@ -480,12 +488,15 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.878893579773744</v>
+        <v>2.878893579773742</v>
       </c>
       <c r="C3" t="n">
         <v>0.9588727023492972</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="n">
+        <v>1.266131410638987</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>multiple</t>
         </is>
@@ -498,12 +509,15 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.090838003737177</v>
+        <v>1.093677535067957</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9461170227698321</v>
-      </c>
-      <c r="D4" t="inlineStr">
+        <v>0.9459767614280777</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8047074834725575</v>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>multiple</t>
         </is>
@@ -521,7 +535,10 @@
       <c r="C5" t="n">
         <v>0.9989738867125377</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="n">
+        <v>0.9389581486305347</v>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>multiple</t>
         </is>
@@ -539,7 +556,10 @@
       <c r="C6" t="n">
         <v>0.9870213363411285</v>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" t="n">
+        <v>0.9111527565454832</v>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>multiple</t>
         </is>
@@ -552,12 +572,15 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.271977756333025</v>
+        <v>1.271977756333023</v>
       </c>
       <c r="C7" t="n">
         <v>0.9992868418203459</v>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" t="n">
+        <v>0.834472912226307</v>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>multiple</t>
         </is>
@@ -570,12 +593,15 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.73103996916734</v>
+        <v>1.439159786975202</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9980171745939656</v>
-      </c>
-      <c r="D8" t="inlineStr">
+        <v>0.9983515097052726</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.9350345842168691</v>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>multiple</t>
         </is>
@@ -588,12 +614,15 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.919241847624935</v>
+        <v>4.877178855194897</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9411938629544762</v>
-      </c>
-      <c r="D9" t="inlineStr">
+        <v>0.94169669696305</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.677266164849096</v>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>multiple</t>
         </is>
@@ -606,12 +635,15 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8471066322618543</v>
+        <v>0.8466835870385386</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9974748013669915</v>
-      </c>
-      <c r="D10" t="inlineStr">
+        <v>0.9974760624516991</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7276269921692753</v>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>multiple</t>
         </is>

--- a/predictions/multiple/GradientBoostingRegressor/Incidencia.xlsx
+++ b/predictions/multiple/GradientBoostingRegressor/Incidencia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>Tipo</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Modelo</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -467,17 +472,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4101026717820584</v>
+        <v>0.440184382832954</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9331900416269556</v>
+        <v>0.9282894203889445</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5013618022923331</v>
+        <v>0.5114954490057118</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>multiple</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       GradientBoostingRegressor())]),
+                                            param_grid={'model__max_depth': [3,
+                                                                             5,
+                                                                             7],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>
@@ -488,17 +507,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.878893579773742</v>
+        <v>2.878893579773739</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9588727023492972</v>
+        <v>0.9588727023492973</v>
       </c>
       <c r="D3" t="n">
-        <v>1.266131410638987</v>
+        <v>1.266131410638986</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>multiple</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       GradientBoostingRegressor())]),
+                                            param_grid={'model__max_depth': [3,
+                                                                             5,
+                                                                             7],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>
@@ -509,17 +542,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.093677535067957</v>
+        <v>1.092344271455278</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9459767614280777</v>
+        <v>0.9460426192480635</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8047074834725575</v>
+        <v>0.80350905318119</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>multiple</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       GradientBoostingRegressor())]),
+                                            param_grid={'model__max_depth': [3,
+                                                                             5,
+                                                                             7],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>
@@ -530,17 +577,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.56219342376502</v>
+        <v>1.562193423765018</v>
       </c>
       <c r="C5" t="n">
         <v>0.9989738867125377</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9389581486305347</v>
+        <v>0.938958148630534</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>multiple</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       GradientBoostingRegressor())]),
+                                            param_grid={'model__max_depth': [3,
+                                                                             5,
+                                                                             7],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>
@@ -564,6 +625,20 @@
           <t>multiple</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       GradientBoostingRegressor())]),
+                                            param_grid={'model__max_depth': [3,
+                                                                             5,
+                                                                             7],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -572,17 +647,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.271977756333023</v>
+        <v>1.271977756333025</v>
       </c>
       <c r="C7" t="n">
         <v>0.9992868418203459</v>
       </c>
       <c r="D7" t="n">
-        <v>0.834472912226307</v>
+        <v>0.8344729122263083</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>multiple</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       GradientBoostingRegressor())]),
+                                            param_grid={'model__max_depth': [3,
+                                                                             5,
+                                                                             7],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>
@@ -606,6 +695,20 @@
           <t>multiple</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       GradientBoostingRegressor())]),
+                                            param_grid={'model__max_depth': [3,
+                                                                             5,
+                                                                             7],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -614,17 +717,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.877178855194897</v>
+        <v>4.894435758873637</v>
       </c>
       <c r="C9" t="n">
-        <v>0.94169669696305</v>
+        <v>0.9414904026042551</v>
       </c>
       <c r="D9" t="n">
-        <v>1.677266164849096</v>
+        <v>1.680814134582989</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>multiple</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       GradientBoostingRegressor())]),
+                                            param_grid={'model__max_depth': [3,
+                                                                             5,
+                                                                             7],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>
@@ -635,17 +752,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8466835870385386</v>
+        <v>0.8471066322618547</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9974760624516991</v>
+        <v>0.9974748013669915</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7276269921692753</v>
+        <v>0.7278178842185484</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>multiple</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       GradientBoostingRegressor())]),
+                                            param_grid={'model__max_depth': [3,
+                                                                             5,
+                                                                             7],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>

--- a/predictions/multiple/GradientBoostingRegressor/Incidencia.xlsx
+++ b/predictions/multiple/GradientBoostingRegressor/Incidencia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,16 @@
           <t>Modelo</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Elapsed Time</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CPU</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -472,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.440184382832954</v>
+        <v>0.4252561148737903</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9282894203889445</v>
+        <v>0.930721389331257</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5114954490057118</v>
+        <v>0.5068547933339305</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -499,6 +509,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G2" t="n">
+        <v>1.127317944850074</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.985</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -507,13 +523,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.878893579773739</v>
+        <v>2.878893579773744</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9588727023492973</v>
+        <v>0.9588727023492972</v>
       </c>
       <c r="D3" t="n">
-        <v>1.266131410638986</v>
+        <v>1.266131410638987</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -534,6 +550,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G3" t="n">
+        <v>1.127317944850074</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.985</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -542,13 +564,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.092344271455278</v>
+        <v>1.09214980763019</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9460426192480635</v>
+        <v>0.9460522249730414</v>
       </c>
       <c r="D4" t="n">
-        <v>0.80350905318119</v>
+        <v>0.8035090531811903</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -569,6 +591,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G4" t="n">
+        <v>1.127317944850074</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.985</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -577,13 +605,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.562193423765018</v>
+        <v>1.56219342376502</v>
       </c>
       <c r="C5" t="n">
         <v>0.9989738867125377</v>
       </c>
       <c r="D5" t="n">
-        <v>0.938958148630534</v>
+        <v>0.9389581486305347</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -604,6 +632,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G5" t="n">
+        <v>1.127317944850074</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.985</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -639,6 +673,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G6" t="n">
+        <v>1.127317944850074</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.985</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -647,13 +687,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.271977756333025</v>
+        <v>1.271977756333027</v>
       </c>
       <c r="C7" t="n">
         <v>0.9992868418203459</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8344729122263083</v>
+        <v>0.8344729122263086</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -674,6 +714,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G7" t="n">
+        <v>1.127317944850074</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.985</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -709,6 +755,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G8" t="n">
+        <v>1.127317944850074</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.985</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -717,13 +769,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.894435758873637</v>
+        <v>4.893487171018756</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9414904026042551</v>
+        <v>0.9415017423165769</v>
       </c>
       <c r="D9" t="n">
-        <v>1.680814134582989</v>
+        <v>1.680542520641608</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -744,6 +796,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G9" t="n">
+        <v>1.127317944850074</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.985</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -752,13 +810,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8471066322618547</v>
+        <v>0.8506165638197862</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9974748013669915</v>
+        <v>0.9974643383697318</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7278178842185484</v>
+        <v>0.7293641098176615</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -779,6 +837,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G10" t="n">
+        <v>1.127317944850074</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.985</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/predictions/multiple/GradientBoostingRegressor/Incidencia.xlsx
+++ b/predictions/multiple/GradientBoostingRegressor/Incidencia.xlsx
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4252561148737903</v>
+        <v>0.4101026717820584</v>
       </c>
       <c r="C2" t="n">
-        <v>0.930721389331257</v>
+        <v>0.9331900416269556</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5068547933339305</v>
+        <v>0.5013618022923331</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -506,14 +506,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.127317944850074</v>
+        <v>1.20481028676683</v>
       </c>
       <c r="H2" t="n">
-        <v>0.985</v>
+        <v>0.948</v>
       </c>
     </row>
     <row r="3">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.878893579773744</v>
+        <v>2.878893579773742</v>
       </c>
       <c r="C3" t="n">
         <v>0.9588727023492972</v>
@@ -547,14 +547,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.127317944850074</v>
+        <v>1.20481028676683</v>
       </c>
       <c r="H3" t="n">
-        <v>0.985</v>
+        <v>0.948</v>
       </c>
     </row>
     <row r="4">
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.09214980763019</v>
+        <v>1.091022577983251</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9460522249730414</v>
+        <v>0.9461079055499841</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8035090531811903</v>
+        <v>0.80350905318119</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -588,14 +588,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.127317944850074</v>
+        <v>1.20481028676683</v>
       </c>
       <c r="H4" t="n">
-        <v>0.985</v>
+        <v>0.948</v>
       </c>
     </row>
     <row r="5">
@@ -629,14 +629,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.127317944850074</v>
+        <v>1.20481028676683</v>
       </c>
       <c r="H5" t="n">
-        <v>0.985</v>
+        <v>0.948</v>
       </c>
     </row>
     <row r="6">
@@ -670,14 +670,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.127317944850074</v>
+        <v>1.20481028676683</v>
       </c>
       <c r="H6" t="n">
-        <v>0.985</v>
+        <v>0.948</v>
       </c>
     </row>
     <row r="7">
@@ -711,14 +711,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.127317944850074</v>
+        <v>1.20481028676683</v>
       </c>
       <c r="H7" t="n">
-        <v>0.985</v>
+        <v>0.948</v>
       </c>
     </row>
     <row r="8">
@@ -752,14 +752,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.127317944850074</v>
+        <v>1.20481028676683</v>
       </c>
       <c r="H8" t="n">
-        <v>0.985</v>
+        <v>0.948</v>
       </c>
     </row>
     <row r="9">
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.893487171018756</v>
+        <v>4.881585944356477</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9415017423165769</v>
+        <v>0.9416440132574638</v>
       </c>
       <c r="D9" t="n">
-        <v>1.680542520641608</v>
+        <v>1.67855275720301</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -793,14 +793,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.127317944850074</v>
+        <v>1.20481028676683</v>
       </c>
       <c r="H9" t="n">
-        <v>0.985</v>
+        <v>0.948</v>
       </c>
     </row>
     <row r="10">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8506165638197862</v>
+        <v>0.8547623065421752</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9974643383697318</v>
+        <v>0.9974519800390841</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7293641098176615</v>
+        <v>0.7311326623602193</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -834,14 +834,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.127317944850074</v>
+        <v>1.20481028676683</v>
       </c>
       <c r="H10" t="n">
-        <v>0.985</v>
+        <v>0.948</v>
       </c>
     </row>
   </sheetData>

--- a/predictions/multiple/GradientBoostingRegressor/Incidencia.xlsx
+++ b/predictions/multiple/GradientBoostingRegressor/Incidencia.xlsx
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4101026717820584</v>
+        <v>0.4227110451726048</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9331900416269556</v>
+        <v>0.9311360074561618</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5013618022923331</v>
+        <v>0.5060024579641147</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -510,10 +510,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.20481028676683</v>
+        <v>1.099153532933269</v>
       </c>
       <c r="H2" t="n">
-        <v>0.948</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="3">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.878893579773742</v>
+        <v>2.878893579773741</v>
       </c>
       <c r="C3" t="n">
         <v>0.9588727023492972</v>
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.20481028676683</v>
+        <v>1.099153532933269</v>
       </c>
       <c r="H3" t="n">
-        <v>0.948</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="4">
@@ -564,10 +564,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.091022577983251</v>
+        <v>1.090838003737177</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9461079055499841</v>
+        <v>0.9461170227698321</v>
       </c>
       <c r="D4" t="n">
         <v>0.80350905318119</v>
@@ -592,10 +592,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.20481028676683</v>
+        <v>1.099153532933269</v>
       </c>
       <c r="H4" t="n">
-        <v>0.948</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="5">
@@ -633,10 +633,10 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.20481028676683</v>
+        <v>1.099153532933269</v>
       </c>
       <c r="H5" t="n">
-        <v>0.948</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="6">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.20481028676683</v>
+        <v>1.099153532933269</v>
       </c>
       <c r="H6" t="n">
-        <v>0.948</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="7">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.271977756333027</v>
+        <v>1.271977756333029</v>
       </c>
       <c r="C7" t="n">
         <v>0.9992868418203459</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8344729122263086</v>
+        <v>0.8344729122263095</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -715,10 +715,10 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.20481028676683</v>
+        <v>1.099153532933269</v>
       </c>
       <c r="H7" t="n">
-        <v>0.948</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="8">
@@ -756,10 +756,10 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.20481028676683</v>
+        <v>1.099153532933269</v>
       </c>
       <c r="H8" t="n">
-        <v>0.948</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="9">
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.881585944356477</v>
+        <v>4.919241847624938</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9416440132574638</v>
+        <v>0.9411938629544762</v>
       </c>
       <c r="D9" t="n">
-        <v>1.67855275720301</v>
+        <v>1.690071404702129</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -797,10 +797,10 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.20481028676683</v>
+        <v>1.099153532933269</v>
       </c>
       <c r="H9" t="n">
-        <v>0.948</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="10">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8547623065421752</v>
+        <v>0.8502471867908139</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9974519800390841</v>
+        <v>0.9974654394712144</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7311326623602193</v>
+        <v>0.7292237418674871</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -838,10 +838,10 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.20481028676683</v>
+        <v>1.099153532933269</v>
       </c>
       <c r="H10" t="n">
-        <v>0.948</v>
+        <v>0.998</v>
       </c>
     </row>
   </sheetData>
